--- a/StructureDefinition-ext-R5-AdverseEvent.suspectEntity.xlsx
+++ b/StructureDefinition-ext-R5-AdverseEvent.suspectEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,7 +404,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ResearchStudy|0.0.1-snapshot-3|ResearchStudy|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-ResearchStudy|ResearchStudy)</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -483,15 +483,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>TODO.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adverse-event-causality-method-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:causality.extension:entityRelatedness</t>
   </si>
   <si>
@@ -521,12 +512,6 @@
   </si>
   <si>
     <t>Extension.extension:causality.extension:entityRelatedness.value[x]</t>
-  </si>
-  <si>
-    <t>Codes for the assessment of whether the entity caused the event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adverse-event-causality-assess-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:causality.extension:author</t>
@@ -561,7 +546,7 @@
     <t>Extension.extension:causality.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ResearchSubject|0.0.1-snapshot-3|ResearchSubject|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-ResearchSubject|ResearchSubject)
 </t>
   </si>
   <si>
@@ -931,8 +916,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2684,13 +2669,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2728,13 +2713,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2759,14 +2744,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2835,7 +2820,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>139</v>
@@ -2938,7 +2923,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>141</v>
@@ -3043,7 +3028,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>143</v>
@@ -3086,7 +3071,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3148,7 +3133,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>146</v>
@@ -3177,10 +3162,10 @@
         <v>147</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3207,13 +3192,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3251,13 +3236,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3282,14 +3267,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3358,7 +3343,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>139</v>
@@ -3461,7 +3446,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>141</v>
@@ -3566,7 +3551,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>143</v>
@@ -3609,7 +3594,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3671,7 +3656,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>146</v>
@@ -3697,13 +3682,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3774,7 +3759,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3817,7 +3802,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3879,7 +3864,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3905,13 +3890,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4113,13 +4098,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
